--- a/data/trans_orig/P05A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C25C16-6842-458C-B0EB-27E324E2E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8658802A-60C6-410E-89F8-B5C9B6A21A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB5BEA20-BA4A-4687-86A1-5C356B01DCAC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D435E990-74F7-4034-AC65-22A80FD0D4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="401">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -77,1153 +77,1162 @@
     <t>87,79%</t>
   </si>
   <si>
-    <t>85,51%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2015 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
     <t>1,02%</t>
   </si>
   <si>
     <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
   </si>
   <si>
     <t>1,5%</t>
@@ -1644,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351501F-116C-4950-BA60-535AD43A935A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E91221D-B22D-4E73-B194-DF92E1230307}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2109,10 +2118,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2177,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2180,13 +2189,13 @@
         <v>485233</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>401</v>
@@ -2195,13 +2204,13 @@
         <v>420327</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>868</v>
@@ -2210,13 +2219,13 @@
         <v>905559</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2240,13 @@
         <v>42477</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -2246,13 +2255,13 @@
         <v>44502</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -2261,13 +2270,13 @@
         <v>86980</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2291,13 @@
         <v>16753</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2297,13 +2306,13 @@
         <v>6126</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -2312,13 +2321,13 @@
         <v>22879</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,28 +2395,28 @@
         <v>2896029</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2926</v>
       </c>
       <c r="I16" s="7">
-        <v>2986631</v>
+        <v>2986630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>5766</v>
@@ -2416,13 +2425,13 @@
         <v>5882660</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2446,13 @@
         <v>289752</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>269</v>
@@ -2452,13 +2461,13 @@
         <v>286995</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>553</v>
@@ -2467,13 +2476,13 @@
         <v>576747</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2497,13 @@
         <v>58268</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -2503,13 +2512,13 @@
         <v>72642</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -2518,13 +2527,13 @@
         <v>130909</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,7 +2560,7 @@
         <v>3266</v>
       </c>
       <c r="I19" s="7">
-        <v>3346268</v>
+        <v>3346267</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2580,7 +2589,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3F1F26-9181-49A9-AE42-7E00BE6A8827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0648A4B5-C918-404A-8F74-6988B117F673}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2616,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2723,13 +2732,13 @@
         <v>903075</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>1134</v>
@@ -2738,13 +2747,13 @@
         <v>1219708</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>1976</v>
@@ -2753,13 +2762,13 @@
         <v>2122783</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2783,13 @@
         <v>48046</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -2789,13 +2798,13 @@
         <v>90968</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M5" s="7">
         <v>130</v>
@@ -2804,13 +2813,13 @@
         <v>139014</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,10 +2837,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -2840,13 +2849,13 @@
         <v>17945</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -2855,13 +2864,13 @@
         <v>37021</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2938,13 @@
         <v>1758103</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>1475</v>
@@ -2944,13 +2953,13 @@
         <v>1584524</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>3143</v>
@@ -2959,13 +2968,13 @@
         <v>3342627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2989,13 @@
         <v>148465</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H9" s="7">
         <v>113</v>
@@ -2995,13 +3004,13 @@
         <v>122649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M9" s="7">
         <v>252</v>
@@ -3010,13 +3019,13 @@
         <v>271114</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3040,13 @@
         <v>39265</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3046,13 +3055,13 @@
         <v>31626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3061,13 +3070,13 @@
         <v>70890</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3132,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3135,13 +3144,13 @@
         <v>434282</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>369</v>
@@ -3150,13 +3159,13 @@
         <v>411522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M12" s="7">
         <v>767</v>
@@ -3165,13 +3174,13 @@
         <v>845805</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3195,13 @@
         <v>31353</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3201,13 +3210,13 @@
         <v>29079</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -3216,13 +3225,13 @@
         <v>60432</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3246,13 @@
         <v>11482</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3252,13 +3261,13 @@
         <v>11316</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -3267,13 +3276,13 @@
         <v>22799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3350,13 @@
         <v>3095459</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>2978</v>
@@ -3356,13 +3365,13 @@
         <v>3215755</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>5886</v>
@@ -3371,13 +3380,13 @@
         <v>6311214</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3401,13 @@
         <v>227865</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -3407,13 +3416,13 @@
         <v>242696</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>437</v>
@@ -3422,13 +3431,13 @@
         <v>470560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3452,13 @@
         <v>69822</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -3458,13 +3467,13 @@
         <v>60887</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -3476,10 +3485,10 @@
         <v>66</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,7 +3544,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521BF57C-28A2-461F-A4DB-303A44A5A53B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B8BAF-D376-4AF1-97FE-365370956798}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3571,7 +3580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3678,28 +3687,28 @@
         <v>661399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>785</v>
       </c>
       <c r="I4" s="7">
-        <v>876739</v>
+        <v>876740</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>1454</v>
@@ -3708,13 +3717,13 @@
         <v>1538140</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3738,13 @@
         <v>59050</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -3744,13 +3753,13 @@
         <v>71967</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>125</v>
@@ -3759,13 +3768,13 @@
         <v>131017</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +3789,7 @@
         <v>26645</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>238</v>
@@ -3816,7 +3825,7 @@
         <v>243</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3852,7 @@
         <v>882</v>
       </c>
       <c r="I7" s="7">
-        <v>983696</v>
+        <v>983697</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3884,13 +3893,13 @@
         <v>1826414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>1683</v>
@@ -3899,13 +3908,13 @@
         <v>1750335</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>3408</v>
@@ -3914,13 +3923,13 @@
         <v>3576749</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3944,13 @@
         <v>177823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H9" s="7">
         <v>156</v>
@@ -3950,13 +3959,13 @@
         <v>164785</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M9" s="7">
         <v>318</v>
@@ -3965,13 +3974,13 @@
         <v>342608</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3995,13 @@
         <v>58269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -4001,13 +4010,13 @@
         <v>57888</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -4016,13 +4025,13 @@
         <v>116157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,7 +4087,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4090,13 +4099,13 @@
         <v>496947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7">
         <v>475</v>
@@ -4105,13 +4114,13 @@
         <v>493873</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>931</v>
@@ -4120,13 +4129,13 @@
         <v>990820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4150,13 @@
         <v>31047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4162,7 +4171,7 @@
         <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4171,7 +4180,7 @@
         <v>65208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>285</v>
@@ -4198,7 +4207,7 @@
         <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4207,13 +4216,13 @@
         <v>14973</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4222,10 +4231,10 @@
         <v>25206</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>294</v>
@@ -4308,13 +4317,13 @@
         <v>2943</v>
       </c>
       <c r="I16" s="7">
-        <v>3120948</v>
+        <v>3120949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>298</v>
@@ -4362,13 +4371,13 @@
         <v>270913</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -4377,13 +4386,13 @@
         <v>538833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,7 +4407,7 @@
         <v>95148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>310</v>
@@ -4413,7 +4422,7 @@
         <v>107850</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>312</v>
@@ -4428,13 +4437,13 @@
         <v>202997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4470,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3499711</v>
+        <v>3499712</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4476,7 +4485,7 @@
         <v>6485</v>
       </c>
       <c r="N19" s="7">
-        <v>6847539</v>
+        <v>6847540</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4490,7 +4499,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4509,7 +4518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCDB703-9D61-4908-9B01-ED753678304D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C754BDDC-7651-456D-B489-83A53C94409A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4526,7 +4535,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4633,13 +4642,13 @@
         <v>507158</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>1350</v>
@@ -4648,13 +4657,13 @@
         <v>787355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>2001</v>
@@ -4663,13 +4672,13 @@
         <v>1294512</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4693,13 @@
         <v>15860</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -4699,13 +4708,13 @@
         <v>30836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>71</v>
@@ -4714,13 +4723,13 @@
         <v>46696</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4744,13 @@
         <v>15049</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -4750,13 +4759,13 @@
         <v>10740</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>331</v>
+        <v>61</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -4768,10 +4777,10 @@
         <v>66</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4848,13 @@
         <v>2056830</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>2774</v>
@@ -4854,13 +4863,13 @@
         <v>2136115</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>4669</v>
@@ -4869,13 +4878,13 @@
         <v>4192945</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4899,13 @@
         <v>81805</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -4905,13 +4914,13 @@
         <v>81497</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="M9" s="7">
         <v>188</v>
@@ -4920,13 +4929,13 @@
         <v>163302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4950,13 @@
         <v>22351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4956,13 +4965,13 @@
         <v>26673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -4971,13 +4980,13 @@
         <v>49025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,7 +5042,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5045,13 +5054,13 @@
         <v>635179</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>154</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>957</v>
@@ -5060,13 +5069,13 @@
         <v>680065</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>1600</v>
@@ -5075,13 +5084,13 @@
         <v>1315244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5105,13 @@
         <v>26119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5111,13 +5120,13 @@
         <v>25185</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5126,13 +5135,13 @@
         <v>51304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5156,13 @@
         <v>10658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5162,13 +5171,13 @@
         <v>4433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5177,13 +5186,13 @@
         <v>15090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5260,13 @@
         <v>3199166</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>5081</v>
@@ -5266,13 +5275,13 @@
         <v>3603535</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>8270</v>
@@ -5281,13 +5290,13 @@
         <v>6802700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5311,13 @@
         <v>123784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -5317,13 +5326,13 @@
         <v>137518</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>318</v>
@@ -5332,13 +5341,13 @@
         <v>261302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5362,13 @@
         <v>48058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>193</v>
+        <v>395</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -5368,13 +5377,13 @@
         <v>41846</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>394</v>
+        <v>143</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -5383,13 +5392,13 @@
         <v>89904</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5454,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8658802A-60C6-410E-89F8-B5C9B6A21A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{296E97E5-5BE0-4A5B-A0D1-324FC7A58D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D435E990-74F7-4034-AC65-22A80FD0D4CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3EA1952-8FC5-4500-AA6E-AB59A920464C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="392">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -77,1150 +77,1129 @@
     <t>87,79%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>87,25%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>4,09%</t>
@@ -1229,19 +1208,13 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
     <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E91221D-B22D-4E73-B194-DF92E1230307}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80EBEE1-2ABC-476C-B38E-8C9AC1DB8C20}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1810,16 +1783,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>106</v>
@@ -1828,13 +1801,13 @@
         <v>105019</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
@@ -1843,13 +1816,13 @@
         <v>115310</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -1858,19 +1831,19 @@
         <v>220329</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>21</v>
@@ -1879,13 +1852,13 @@
         <v>20156</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -1894,13 +1867,13 @@
         <v>26365</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>48</v>
@@ -1909,13 +1882,13 @@
         <v>46521</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1903,13 @@
         <v>1025089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1277</v>
@@ -1945,13 +1918,13 @@
         <v>1300360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2309</v>
@@ -1960,18 +1933,18 @@
         <v>2325448</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1983,13 +1956,13 @@
         <v>1510883</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1386</v>
@@ -1998,13 +1971,13 @@
         <v>1407620</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2854</v>
@@ -2013,19 +1986,19 @@
         <v>2918503</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>140</v>
@@ -2034,13 +2007,13 @@
         <v>142256</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>118</v>
@@ -2049,13 +2022,13 @@
         <v>127182</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>258</v>
@@ -2064,19 +2037,19 @@
         <v>269438</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>21</v>
@@ -2085,13 +2058,13 @@
         <v>21359</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -2100,13 +2073,13 @@
         <v>40151</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -2115,10 +2088,10 @@
         <v>61509</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>67</v>
@@ -2136,13 +2109,13 @@
         <v>1674497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1542</v>
@@ -2151,13 +2124,13 @@
         <v>1574953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3171</v>
@@ -2166,13 +2139,13 @@
         <v>3249450</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,7 +2204,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>38</v>
@@ -2282,7 +2255,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>15</v>
@@ -2306,13 +2279,13 @@
         <v>6126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -2321,13 +2294,13 @@
         <v>22879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2315,13 @@
         <v>544464</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>447</v>
@@ -2357,13 +2330,13 @@
         <v>470955</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>967</v>
@@ -2372,13 +2345,13 @@
         <v>1015418</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2368,13 @@
         <v>2896029</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>2926</v>
@@ -2413,10 +2386,10 @@
         <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>5766</v>
@@ -2425,19 +2398,19 @@
         <v>5882660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>284</v>
@@ -2446,13 +2419,13 @@
         <v>289752</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>269</v>
@@ -2461,13 +2434,13 @@
         <v>286995</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>553</v>
@@ -2476,19 +2449,19 @@
         <v>576747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>57</v>
@@ -2497,13 +2470,13 @@
         <v>58268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -2512,13 +2485,13 @@
         <v>72642</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -2527,13 +2500,13 @@
         <v>130909</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2521,13 @@
         <v>3244049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3266</v>
@@ -2563,13 +2536,13 @@
         <v>3346267</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6447</v>
@@ -2578,18 +2551,18 @@
         <v>6590316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0648A4B5-C918-404A-8F74-6988B117F673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3563D5-330E-4B5E-B7D1-D03989D155CF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2625,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2732,13 +2705,13 @@
         <v>903075</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>1134</v>
@@ -2747,13 +2720,13 @@
         <v>1219708</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>1976</v>
@@ -2762,19 +2735,19 @@
         <v>2122783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>43</v>
@@ -2783,13 +2756,13 @@
         <v>48046</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -2798,13 +2771,13 @@
         <v>90968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="M5" s="7">
         <v>130</v>
@@ -2813,19 +2786,19 @@
         <v>139014</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>19</v>
@@ -2834,13 +2807,13 @@
         <v>19076</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -2849,13 +2822,13 @@
         <v>17945</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -2864,13 +2837,13 @@
         <v>37021</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2858,13 @@
         <v>970197</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1238</v>
@@ -2900,13 +2873,13 @@
         <v>1328621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2142</v>
@@ -2915,18 +2888,18 @@
         <v>2298818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2938,13 +2911,13 @@
         <v>1758103</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>1475</v>
@@ -2953,13 +2926,13 @@
         <v>1584524</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>3143</v>
@@ -2968,19 +2941,19 @@
         <v>3342627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>139</v>
@@ -2989,13 +2962,13 @@
         <v>148465</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>113</v>
@@ -3004,13 +2977,13 @@
         <v>122649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>252</v>
@@ -3019,19 +2992,19 @@
         <v>271114</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>34</v>
@@ -3040,13 +3013,13 @@
         <v>39265</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3058,10 +3031,10 @@
         <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3070,13 +3043,13 @@
         <v>70890</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3064,13 @@
         <v>1945832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1617</v>
@@ -3106,13 +3079,13 @@
         <v>1738799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3458</v>
@@ -3121,13 +3094,13 @@
         <v>3684631</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3117,13 @@
         <v>434282</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H12" s="7">
         <v>369</v>
@@ -3159,13 +3132,13 @@
         <v>411522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M12" s="7">
         <v>767</v>
@@ -3174,19 +3147,19 @@
         <v>845805</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>28</v>
@@ -3195,13 +3168,13 @@
         <v>31353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3210,13 +3183,13 @@
         <v>29079</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -3225,19 +3198,19 @@
         <v>60432</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>10</v>
@@ -3246,10 +3219,10 @@
         <v>11482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>190</v>
@@ -3264,10 +3237,10 @@
         <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -3276,13 +3249,13 @@
         <v>22799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3270,13 @@
         <v>477118</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>407</v>
@@ -3312,13 +3285,13 @@
         <v>451917</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>843</v>
@@ -3327,13 +3300,13 @@
         <v>929035</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3323,13 @@
         <v>3095459</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>2978</v>
@@ -3392,7 +3365,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>210</v>
@@ -3443,7 +3416,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>63</v>
@@ -3470,10 +3443,10 @@
         <v>216</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -3482,13 +3455,13 @@
         <v>130710</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3476,13 @@
         <v>3393146</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3262</v>
@@ -3518,13 +3491,13 @@
         <v>3519338</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6443</v>
@@ -3533,18 +3506,18 @@
         <v>6912484</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +3536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B8BAF-D376-4AF1-97FE-365370956798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA1AE93-4891-4423-89E7-B40861B8FCC3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3687,13 +3660,13 @@
         <v>661399</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>785</v>
@@ -3702,13 +3675,13 @@
         <v>876740</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>1454</v>
@@ -3729,7 +3702,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>60</v>
@@ -3774,13 +3747,13 @@
         <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>26</v>
@@ -3789,13 +3762,13 @@
         <v>26645</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -3804,13 +3777,13 @@
         <v>34989</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -3819,13 +3792,13 @@
         <v>61635</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3813,13 @@
         <v>747094</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>882</v>
@@ -3855,13 +3828,13 @@
         <v>983697</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1637</v>
@@ -3870,18 +3843,18 @@
         <v>1730791</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3893,13 +3866,13 @@
         <v>1826414</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>1683</v>
@@ -3908,13 +3881,13 @@
         <v>1750335</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>3408</v>
@@ -3923,19 +3896,19 @@
         <v>3576749</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>162</v>
@@ -3944,13 +3917,13 @@
         <v>177823</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H9" s="7">
         <v>156</v>
@@ -3959,13 +3932,13 @@
         <v>164785</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M9" s="7">
         <v>318</v>
@@ -3974,19 +3947,19 @@
         <v>342608</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>53</v>
@@ -3995,13 +3968,13 @@
         <v>58269</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -4010,13 +3983,13 @@
         <v>57888</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -4025,13 +3998,13 @@
         <v>116157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4019,13 @@
         <v>2062506</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1894</v>
@@ -4061,13 +4034,13 @@
         <v>1973008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3834</v>
@@ -4076,13 +4049,13 @@
         <v>4035514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4072,13 @@
         <v>496947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H12" s="7">
         <v>475</v>
@@ -4114,13 +4087,13 @@
         <v>493873</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M12" s="7">
         <v>931</v>
@@ -4129,19 +4102,19 @@
         <v>990820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>28</v>
@@ -4150,13 +4123,13 @@
         <v>31047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4165,13 +4138,13 @@
         <v>34161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4180,19 +4153,19 @@
         <v>65208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>9</v>
@@ -4201,13 +4174,13 @@
         <v>10233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4216,13 +4189,13 @@
         <v>14973</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4231,13 +4204,13 @@
         <v>25206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4225,13 @@
         <v>538227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>521</v>
@@ -4267,13 +4240,13 @@
         <v>543007</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1014</v>
@@ -4282,13 +4255,13 @@
         <v>1081234</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,28 +4278,28 @@
         <v>2984761</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>2943</v>
       </c>
       <c r="I16" s="7">
-        <v>3120949</v>
+        <v>3120948</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>5793</v>
@@ -4335,19 +4308,19 @@
         <v>6105709</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>250</v>
@@ -4356,13 +4329,13 @@
         <v>267920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>253</v>
@@ -4371,13 +4344,13 @@
         <v>270913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -4386,19 +4359,19 @@
         <v>538833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>88</v>
@@ -4407,13 +4380,13 @@
         <v>95148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>101</v>
@@ -4425,10 +4398,10 @@
         <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -4437,13 +4410,13 @@
         <v>202997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,48 +4431,48 @@
         <v>3347828</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3499712</v>
+        <v>3499711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6485</v>
       </c>
       <c r="N19" s="7">
-        <v>6847540</v>
+        <v>6847539</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4518,7 +4491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C754BDDC-7651-456D-B489-83A53C94409A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9203E25-94BA-42E5-8433-5E2ABBACA814}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4535,7 +4508,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4642,13 +4615,13 @@
         <v>507158</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>1350</v>
@@ -4657,13 +4630,13 @@
         <v>787355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>2001</v>
@@ -4672,19 +4645,19 @@
         <v>1294512</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>21</v>
@@ -4693,13 +4666,13 @@
         <v>15860</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -4708,13 +4681,13 @@
         <v>30836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>71</v>
@@ -4723,19 +4696,19 @@
         <v>46696</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>63</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
@@ -4744,13 +4717,13 @@
         <v>15049</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -4759,13 +4732,13 @@
         <v>10740</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -4774,13 +4747,13 @@
         <v>25789</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4768,13 @@
         <v>538067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1417</v>
@@ -4810,13 +4783,13 @@
         <v>828931</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2105</v>
@@ -4825,18 +4798,18 @@
         <v>1366997</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4848,13 +4821,13 @@
         <v>2056830</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>2774</v>
@@ -4863,13 +4836,13 @@
         <v>2136115</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>4669</v>
@@ -4878,19 +4851,19 @@
         <v>4192945</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>79</v>
@@ -4899,13 +4872,13 @@
         <v>81805</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -4914,13 +4887,13 @@
         <v>81497</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M9" s="7">
         <v>188</v>
@@ -4929,19 +4902,19 @@
         <v>163302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>17</v>
@@ -4950,13 +4923,13 @@
         <v>22351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4965,13 +4938,13 @@
         <v>26673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -4980,13 +4953,13 @@
         <v>49025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4974,13 @@
         <v>2160986</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>2914</v>
@@ -5016,13 +4989,13 @@
         <v>2244286</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>4905</v>
@@ -5031,13 +5004,13 @@
         <v>4405272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5027,13 @@
         <v>635179</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H12" s="7">
         <v>957</v>
@@ -5069,13 +5042,13 @@
         <v>680065</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>1600</v>
@@ -5084,19 +5057,19 @@
         <v>1315244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>26</v>
@@ -5105,13 +5078,13 @@
         <v>26119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5120,13 +5093,13 @@
         <v>25185</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5135,19 +5108,19 @@
         <v>51304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -5156,13 +5129,13 @@
         <v>10658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5171,13 +5144,13 @@
         <v>4433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -5186,13 +5159,13 @@
         <v>15090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5180,13 @@
         <v>671956</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>998</v>
@@ -5222,13 +5195,13 @@
         <v>709682</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1678</v>
@@ -5237,13 +5210,13 @@
         <v>1381638</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5233,13 @@
         <v>3199166</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>5081</v>
@@ -5275,34 +5248,34 @@
         <v>3603535</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>8270</v>
       </c>
       <c r="N16" s="7">
-        <v>6802700</v>
+        <v>6802701</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>126</v>
@@ -5311,13 +5284,13 @@
         <v>123784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -5326,13 +5299,13 @@
         <v>137518</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>318</v>
@@ -5341,19 +5314,19 @@
         <v>261302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>44</v>
@@ -5362,13 +5335,13 @@
         <v>48058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>397</v>
+        <v>284</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -5377,13 +5350,13 @@
         <v>41846</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>143</v>
+        <v>390</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -5392,13 +5365,13 @@
         <v>89904</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5386,13 @@
         <v>3371008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>5329</v>
@@ -5428,33 +5401,33 @@
         <v>3782899</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>8688</v>
       </c>
       <c r="N19" s="7">
-        <v>7153906</v>
+        <v>7153907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{296E97E5-5BE0-4A5B-A0D1-324FC7A58D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F518DF6-34C3-419E-9AC7-82B251C8382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3EA1952-8FC5-4500-AA6E-AB59A920464C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E49A0F16-16FA-4D3A-9DAF-9C8115C38EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="399">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -983,40 +983,37 @@
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
   <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -1025,196 +1022,220 @@
     <t>4,97%</t>
   </si>
   <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,78%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80EBEE1-2ABC-476C-B38E-8C9AC1DB8C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861799FB-3E99-49BC-A389-D412C457EDB8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2159,7 +2180,7 @@
         <v>467</v>
       </c>
       <c r="D12" s="7">
-        <v>485233</v>
+        <v>485232</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>69</v>
@@ -2312,7 +2333,7 @@
         <v>520</v>
       </c>
       <c r="D15" s="7">
-        <v>544464</v>
+        <v>544463</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -2581,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3563D5-330E-4B5E-B7D1-D03989D155CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79052C9C-3FF3-4C05-8B0C-18B324F4A9DB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3335,7 +3356,7 @@
         <v>2978</v>
       </c>
       <c r="I16" s="7">
-        <v>3215755</v>
+        <v>3215754</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>198</v>
@@ -3488,7 +3509,7 @@
         <v>3262</v>
       </c>
       <c r="I19" s="7">
-        <v>3519338</v>
+        <v>3519337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -3536,7 +3557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA1AE93-4891-4423-89E7-B40861B8FCC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C26FFB5-DC18-4D14-ADDC-12A7E03E7713}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3657,7 +3678,7 @@
         <v>669</v>
       </c>
       <c r="D4" s="7">
-        <v>661399</v>
+        <v>661400</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>42</v>
@@ -3810,7 +3831,7 @@
         <v>755</v>
       </c>
       <c r="D7" s="7">
-        <v>747094</v>
+        <v>747095</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4491,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9203E25-94BA-42E5-8433-5E2ABBACA814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233F3109-E406-4E86-8AC4-872F8192637E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4612,7 +4633,7 @@
         <v>651</v>
       </c>
       <c r="D4" s="7">
-        <v>507158</v>
+        <v>482175</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>314</v>
@@ -4627,7 +4648,7 @@
         <v>1350</v>
       </c>
       <c r="I4" s="7">
-        <v>787355</v>
+        <v>711411</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>317</v>
@@ -4642,7 +4663,7 @@
         <v>2001</v>
       </c>
       <c r="N4" s="7">
-        <v>1294512</v>
+        <v>1193588</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>320</v>
@@ -4663,46 +4684,46 @@
         <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>15860</v>
+        <v>14864</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>30836</v>
+        <v>27990</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>71</v>
       </c>
       <c r="N5" s="7">
-        <v>46696</v>
+        <v>42854</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,46 +4735,46 @@
         <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>15049</v>
+        <v>14456</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>10740</v>
+        <v>9877</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>332</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>25789</v>
+        <v>24333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,7 +4786,7 @@
         <v>688</v>
       </c>
       <c r="D7" s="7">
-        <v>538067</v>
+        <v>511496</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4780,7 +4801,7 @@
         <v>1417</v>
       </c>
       <c r="I7" s="7">
-        <v>828931</v>
+        <v>749278</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -4795,7 +4816,7 @@
         <v>2105</v>
       </c>
       <c r="N7" s="7">
-        <v>1366997</v>
+        <v>1260775</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -4818,7 +4839,7 @@
         <v>1895</v>
       </c>
       <c r="D8" s="7">
-        <v>2056830</v>
+        <v>2188365</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>334</v>
@@ -4833,31 +4854,31 @@
         <v>2774</v>
       </c>
       <c r="I8" s="7">
-        <v>2136115</v>
+        <v>2134930</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>4669</v>
       </c>
       <c r="N8" s="7">
-        <v>4192945</v>
+        <v>4323295</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4890,13 @@
         <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>81805</v>
+        <v>78207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>342</v>
+        <v>189</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>343</v>
@@ -4884,31 +4905,31 @@
         <v>109</v>
       </c>
       <c r="I9" s="7">
-        <v>81497</v>
+        <v>73449</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>344</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>188</v>
       </c>
       <c r="N9" s="7">
-        <v>163302</v>
+        <v>151656</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,46 +4941,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>22351</v>
+        <v>22750</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>26673</v>
+        <v>24912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>49025</v>
+        <v>47662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,7 +4992,7 @@
         <v>1991</v>
       </c>
       <c r="D11" s="7">
-        <v>2160986</v>
+        <v>2289322</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4986,7 +5007,7 @@
         <v>2914</v>
       </c>
       <c r="I11" s="7">
-        <v>2244286</v>
+        <v>2233291</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -5001,7 +5022,7 @@
         <v>4905</v>
       </c>
       <c r="N11" s="7">
-        <v>4405272</v>
+        <v>4522613</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -5024,46 +5045,46 @@
         <v>643</v>
       </c>
       <c r="D12" s="7">
-        <v>635179</v>
+        <v>611204</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>957</v>
       </c>
       <c r="I12" s="7">
-        <v>680065</v>
+        <v>629715</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>1600</v>
       </c>
       <c r="N12" s="7">
-        <v>1315244</v>
+        <v>1240919</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,46 +5096,46 @@
         <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>26119</v>
+        <v>24073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>25185</v>
+        <v>22800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>51304</v>
+        <v>46874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,46 +5147,46 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>10658</v>
+        <v>10436</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>4433</v>
+        <v>4189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>15090</v>
+        <v>14624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,7 +5198,7 @@
         <v>680</v>
       </c>
       <c r="D15" s="7">
-        <v>671956</v>
+        <v>645713</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -5192,7 +5213,7 @@
         <v>998</v>
       </c>
       <c r="I15" s="7">
-        <v>709682</v>
+        <v>656704</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -5207,7 +5228,7 @@
         <v>1678</v>
       </c>
       <c r="N15" s="7">
-        <v>1381638</v>
+        <v>1302417</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5230,46 +5251,46 @@
         <v>3189</v>
       </c>
       <c r="D16" s="7">
-        <v>3199166</v>
+        <v>3281746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>5081</v>
       </c>
       <c r="I16" s="7">
-        <v>3603535</v>
+        <v>3476056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>8270</v>
       </c>
       <c r="N16" s="7">
-        <v>6802701</v>
+        <v>6757802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,46 +5302,46 @@
         <v>126</v>
       </c>
       <c r="D17" s="7">
-        <v>123784</v>
+        <v>117144</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
       </c>
       <c r="I17" s="7">
-        <v>137518</v>
+        <v>124239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>318</v>
       </c>
       <c r="N17" s="7">
-        <v>261302</v>
+        <v>241383</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,46 +5353,46 @@
         <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>48058</v>
+        <v>47642</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>284</v>
+        <v>61</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
       </c>
       <c r="I18" s="7">
-        <v>41846</v>
+        <v>38978</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>354</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
       </c>
       <c r="N18" s="7">
-        <v>89904</v>
+        <v>86620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>194</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,7 +5404,7 @@
         <v>3359</v>
       </c>
       <c r="D19" s="7">
-        <v>3371008</v>
+        <v>3446532</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5398,7 +5419,7 @@
         <v>5329</v>
       </c>
       <c r="I19" s="7">
-        <v>3782899</v>
+        <v>3639273</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5413,7 +5434,7 @@
         <v>8688</v>
       </c>
       <c r="N19" s="7">
-        <v>7153907</v>
+        <v>7085805</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
